--- a/excel/finished/wg8#高炉/2020-6/8高炉鱼雷罐装载率.xlsx
+++ b/excel/finished/wg8#高炉/2020-6/8高炉鱼雷罐装载率.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr dateCompatibility="0" showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYSD 12\Desktop\统计表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D9F85748-F65C-4016-85DA-CC8595AD6FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1F5659-FEB6-4336-BA7D-DFFA6B860F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>累计值</t>
-  </si>
-  <si>
-    <t>不合格罐数</t>
   </si>
   <si>
     <t>总罐数</t>
@@ -78,19 +72,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>占位符行</t>
+    <t>合格罐数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜子项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜母项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白子项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白母项</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -154,8 +164,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,22 +184,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -191,12 +213,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -206,23 +228,23 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -232,12 +254,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -245,12 +267,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -260,12 +282,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -275,12 +297,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -290,12 +312,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -305,12 +327,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -320,12 +342,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -335,10 +357,10 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -357,7 +379,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +410,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,28 +478,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,7 +500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -585,25 +619,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -611,25 +645,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -642,21 +676,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -670,7 +704,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -682,32 +716,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -722,11 +756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -741,101 +775,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="23"/>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
@@ -843,13 +883,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="24" t="str">
+      <c r="E6" s="11" t="str">
         <f>IF(ISERROR(C6/D6),"",C6/D6*100)</f>
         <v/>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="24" t="str">
+      <c r="H6" s="11" t="str">
         <f>IF(ISERROR(F6/G6),"",F6/G6*100)</f>
         <v/>
       </c>
@@ -857,7 +897,7 @@
         <f>IF(ISERROR((C6+F6)/(D6+G6)),"",(C6+F6)/(D6+G6)*100)</f>
         <v/>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="20">
         <f>IF(ISERROR((C37+F37)/(D37+G37)*100),0,(C37+F37)/(D37+G37)*100)</f>
         <v>0</v>
       </c>
@@ -868,13 +908,13 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="11" t="str">
         <f t="shared" ref="E7:E37" si="0">IF(ISERROR(C7/D7),"",C7/D7*100)</f>
         <v/>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="24" t="str">
+      <c r="H7" s="11" t="str">
         <f t="shared" ref="H7:H37" si="1">IF(ISERROR(F7/G7),"",F7/G7*100)</f>
         <v/>
       </c>
@@ -882,7 +922,7 @@
         <f t="shared" ref="I7:I37" si="2">IF(ISERROR((C7+F7)/(D7+G7)),"",(C7+F7)/(D7+G7)*100)</f>
         <v/>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
@@ -890,13 +930,13 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -904,7 +944,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
@@ -912,13 +952,13 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="24" t="str">
+      <c r="E9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="24" t="str">
+      <c r="H9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -926,7 +966,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
@@ -934,13 +974,13 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="24" t="str">
+      <c r="E10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="24" t="str">
+      <c r="H10" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -948,7 +988,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
@@ -956,13 +996,13 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="24" t="str">
+      <c r="E11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -970,7 +1010,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
@@ -978,13 +1018,13 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="24" t="str">
+      <c r="E12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="24" t="str">
+      <c r="H12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -992,7 +1032,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
@@ -1000,13 +1040,13 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1014,7 +1054,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
@@ -1022,13 +1062,13 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="24" t="str">
+      <c r="E14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1036,7 +1076,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -1044,13 +1084,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="24" t="str">
+      <c r="H15" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1058,7 +1098,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
@@ -1066,13 +1106,13 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="24" t="str">
+      <c r="E16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="24" t="str">
+      <c r="H16" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1080,7 +1120,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
@@ -1088,13 +1128,13 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="24" t="str">
+      <c r="E17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="24" t="str">
+      <c r="H17" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1102,7 +1142,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
@@ -1110,13 +1150,13 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="24" t="str">
+      <c r="E18" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="24" t="str">
+      <c r="H18" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1124,7 +1164,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
@@ -1132,13 +1172,13 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="24" t="str">
+      <c r="E19" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="24" t="str">
+      <c r="H19" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1146,7 +1186,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
@@ -1154,13 +1194,13 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="24" t="str">
+      <c r="E20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="24" t="str">
+      <c r="H20" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1168,7 +1208,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
@@ -1176,13 +1216,13 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="24" t="str">
+      <c r="E21" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="24" t="str">
+      <c r="H21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1190,7 +1230,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
@@ -1198,13 +1238,13 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="24" t="str">
+      <c r="E22" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="24" t="str">
+      <c r="H22" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1212,7 +1252,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
@@ -1220,13 +1260,13 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="24" t="str">
+      <c r="E23" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="24" t="str">
+      <c r="H23" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1234,7 +1274,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J23" s="25"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
@@ -1242,13 +1282,13 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="24" t="str">
+      <c r="E24" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="24" t="str">
+      <c r="H24" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1256,7 +1296,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J24" s="25"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
@@ -1264,13 +1304,13 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="24" t="str">
+      <c r="E25" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="24" t="str">
+      <c r="H25" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1278,7 +1318,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J25" s="25"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
@@ -1286,13 +1326,13 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="24" t="str">
+      <c r="E26" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="24" t="str">
+      <c r="H26" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1300,7 +1340,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
@@ -1308,13 +1348,13 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="24" t="str">
+      <c r="E27" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="24" t="str">
+      <c r="H27" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1322,7 +1362,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J27" s="25"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
@@ -1330,13 +1370,13 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="24" t="str">
+      <c r="E28" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="24" t="str">
+      <c r="H28" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1344,7 +1384,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
@@ -1352,13 +1392,13 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="24" t="str">
+      <c r="E29" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="24" t="str">
+      <c r="H29" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1366,7 +1406,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
@@ -1374,13 +1414,13 @@
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="24" t="str">
+      <c r="E30" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="24" t="str">
+      <c r="H30" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1388,7 +1428,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
@@ -1396,13 +1436,13 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="24" t="str">
+      <c r="E31" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="24" t="str">
+      <c r="H31" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1410,7 +1450,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
@@ -1418,13 +1458,13 @@
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="24" t="str">
+      <c r="E32" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="24" t="str">
+      <c r="H32" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1432,7 +1472,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
@@ -1440,13 +1480,13 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="24" t="str">
+      <c r="E33" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="24" t="str">
+      <c r="H33" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1454,7 +1494,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J33" s="25"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
@@ -1462,13 +1502,13 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="24" t="str">
+      <c r="E34" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="24" t="str">
+      <c r="H34" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1476,7 +1516,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J34" s="25"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
@@ -1484,13 +1524,13 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="24" t="str">
+      <c r="E35" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="24" t="str">
+      <c r="H35" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1498,7 +1538,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J35" s="25"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
@@ -1506,13 +1546,13 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="24" t="str">
+      <c r="E36" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="24" t="str">
+      <c r="H36" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1520,11 +1560,11 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J36" s="25"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="9">
         <f t="shared" ref="C37:G37" si="3">SUM(C6:C36)</f>
@@ -1534,7 +1574,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E37" s="27" t="str">
+      <c r="E37" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1546,15 +1586,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H37" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I37" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J37" s="26"/>
+      <c r="H37" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I37" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1574,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2BAC3E-BC1F-4709-8371-7EDAD3222F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2BAC3E-BC1F-4709-8371-7EDAD3222F8F}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1583,14 +1623,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="22"/>
+    <col min="1" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="22">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1602,7 +1642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909805E1-3754-4466-92DE-1646F8220BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909805E1-3754-4466-92DE-1646F8220BE0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1611,7 +1651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="22"/>
+    <col min="1" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
